--- a/biology/Botanique/Classification_d'Engler/Classification_d'Engler.xlsx
+++ b/biology/Botanique/Classification_d'Engler/Classification_d'Engler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Classification_d%27Engler</t>
+          <t>Classification_d'Engler</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification d'Engler est une classification classique de taxinomie des plantes décrite par Adolf Engler. Il existe plusieurs versions de cette classification. Selon le Syllabus der Pflanzenfamilien (1924) les groupes les plus importantes sont :
 I. divisio Schizophyta
